--- a/A02QPCA_Orca Pricing Report.xlsx
+++ b/A02QPCA_Orca Pricing Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\ACTUALIZACIONES (FINALES 2023-LEO)\11.- A02QPCA (ISMARY)\CORRECCION 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\ACTUALIZACIONES (FINALES 2023-LEO)\11.- A02QPCA (ISMARY)\CORRECCION 2\CORRECCION QUE FALTARON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF95D32-943E-4250-B9AB-F2AEB343A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F094DA9C-AB93-4047-9A0F-356161E8F2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="154">
   <si>
     <t>Pricing Report</t>
   </si>
   <si>
-    <t>Generated: 09/11/2024, 03:25 PM</t>
-  </si>
-  <si>
     <t>RQST By: ROMERO ONIRIA</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>FRC: 845C</t>
   </si>
   <si>
-    <t>Pricing Date: 09/11/2024</t>
-  </si>
-  <si>
     <t>ITEM DESCRIPTION</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>169.33 HRS</t>
   </si>
   <si>
-    <t>72.64 HRS</t>
-  </si>
-  <si>
     <t>FRC: 1C</t>
   </si>
   <si>
@@ -234,24 +225,15 @@
     <t>OVERHEAD-GUY</t>
   </si>
   <si>
-    <t>21.10 HRS</t>
-  </si>
-  <si>
     <t>0.00 HRS</t>
   </si>
   <si>
-    <t>7.22 HRS</t>
-  </si>
-  <si>
     <t>FRC: 85C</t>
   </si>
   <si>
     <t>8.97 HRS</t>
   </si>
   <si>
-    <t>2.94 HRS</t>
-  </si>
-  <si>
     <t>FRC: 8645C</t>
   </si>
   <si>
@@ -285,15 +267,9 @@
     <t>AMT</t>
   </si>
   <si>
-    <t>2.67 HRS</t>
-  </si>
-  <si>
     <t>EXEMPT MATERIAL - TELCO</t>
   </si>
   <si>
-    <t>6.32 HRS</t>
-  </si>
-  <si>
     <t>**** DETAILED PRICING SUMMARY ****</t>
   </si>
   <si>
@@ -481,6 +457,36 @@
   </si>
   <si>
     <t>AR</t>
+  </si>
+  <si>
+    <t>Generated: 09/20/2024, 01:50 PM</t>
+  </si>
+  <si>
+    <t>Pricing Date: 09/20/2024</t>
+  </si>
+  <si>
+    <t>78.36 HRS</t>
+  </si>
+  <si>
+    <t>30-5</t>
+  </si>
+  <si>
+    <t>20.26 HRS</t>
+  </si>
+  <si>
+    <t>7.67 HRS</t>
+  </si>
+  <si>
+    <t>3.10 HRS</t>
+  </si>
+  <si>
+    <t>ANCHOR-ROD</t>
+  </si>
+  <si>
+    <t>3.79 HRS</t>
+  </si>
+  <si>
+    <t>10.93 HRS</t>
   </si>
 </sst>
 </file>
@@ -803,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G331"/>
+  <dimension ref="A1:G333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,67 +824,67 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -890,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -898,7 +904,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -910,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -918,7 +924,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -930,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -938,7 +944,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -958,7 +964,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -970,7 +976,7 @@
         <v>1964</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -978,7 +984,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -998,7 +1004,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1018,13 +1024,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,10 +1046,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>35.5</v>
@@ -1054,7 +1060,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <v>3809.61</v>
@@ -1068,10 +1074,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G22" s="1">
         <v>4000.09</v>
@@ -1079,10 +1085,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>157.88999999999999</v>
@@ -1093,10 +1099,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>157.88999999999999</v>
@@ -1107,10 +1113,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" s="1">
         <v>6146.41</v>
@@ -1118,7 +1124,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F26" s="1">
         <v>35284.519999999997</v>
@@ -1126,10 +1132,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" s="1">
         <v>35284.519999999997</v>
@@ -1137,10 +1143,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>137.91999999999999</v>
@@ -1151,10 +1157,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1">
         <v>3550.63</v>
@@ -1162,7 +1168,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="1">
         <v>48981.66</v>
@@ -1170,7 +1176,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1">
         <v>10715</v>
@@ -1178,10 +1184,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G32" s="1">
         <v>59696.66</v>
@@ -1189,7 +1195,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D33">
         <v>38.93</v>
@@ -1197,7 +1203,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34">
         <v>25.74</v>
@@ -1205,7 +1211,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1213,67 +1219,67 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>10</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1285,7 +1291,7 @@
         <v>1720</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1293,7 +1299,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1313,7 +1319,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1325,7 +1331,7 @@
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1333,7 +1339,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1345,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1353,7 +1359,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1373,7 +1379,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1393,7 +1399,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,7 +1411,7 @@
         <v>2966</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1413,7 +1419,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1433,7 +1439,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1453,7 +1459,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1465,7 +1471,7 @@
         <v>4048</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1473,7 +1479,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1493,13 +1499,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>284.73599999999999</v>
+        <v>287.13600000000002</v>
       </c>
       <c r="D56">
         <v>5992</v>
@@ -1513,7 +1519,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1533,7 +1539,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1553,7 +1559,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1573,13 +1579,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>388.94400000000002</v>
+        <v>386.06400000000002</v>
       </c>
       <c r="D60">
         <v>2721</v>
@@ -1593,7 +1599,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1613,13 +1619,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1627,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>1863.7560000000001</v>
+        <v>1863.2760000000001</v>
       </c>
       <c r="E63" s="1">
         <v>21324.3</v>
@@ -1635,10 +1641,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E64">
         <v>35.5</v>
@@ -1649,7 +1655,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D65">
         <v>40844.370000000003</v>
@@ -1663,10 +1669,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G66" s="1">
         <v>42886.59</v>
@@ -1674,10 +1680,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E67">
         <v>157.88999999999999</v>
@@ -1688,10 +1694,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E68">
         <v>157.88999999999999</v>
@@ -1702,10 +1708,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G69" s="1">
         <v>86807.37</v>
@@ -1713,59 +1719,59 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F70" s="1">
-        <v>11608.23</v>
+        <v>19360.830000000002</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G71" s="1">
-        <v>11608.23</v>
+        <v>19360.830000000002</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="E72">
         <v>137.91999999999999</v>
       </c>
       <c r="F72" s="1">
-        <v>10018.709999999999</v>
+        <v>10807.92</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G73" s="1">
-        <v>10018.709999999999</v>
+        <v>10807.92</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F74" s="1">
-        <v>151320.9</v>
+        <v>159862.71</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F75" s="1">
         <v>43195</v>
@@ -1773,18 +1779,18 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G76" s="1">
-        <v>194515.9</v>
+        <v>203057.71</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D77">
         <v>549.79999999999995</v>
@@ -1792,15 +1798,15 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D78">
-        <v>72.64</v>
+        <v>78.36</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1808,67 +1814,67 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
         <v>9</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
         <v>10</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" t="s">
         <v>11</v>
       </c>
-      <c r="D88" t="s">
+      <c r="F88" t="s">
         <v>12</v>
-      </c>
-      <c r="E88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1880,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -1888,7 +1894,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1897,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -1908,7 +1914,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1917,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -1928,7 +1934,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1937,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -1948,541 +1954,551 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" t="s">
-        <v>23</v>
+        <v>65</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>34</v>
       </c>
       <c r="E93" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>0</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>24</v>
-      </c>
-      <c r="D95" t="s">
-        <v>69</v>
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>35.5</v>
-      </c>
-      <c r="F95">
-        <v>749.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96">
-        <v>749.18</v>
+        <v>22</v>
+      </c>
+      <c r="D96" t="s">
+        <v>148</v>
       </c>
       <c r="E96">
-        <v>0.05</v>
+        <v>35.5</v>
       </c>
       <c r="F96">
-        <v>37.46</v>
+        <v>719.14</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" t="s">
-        <v>28</v>
-      </c>
-      <c r="G97">
-        <v>786.64</v>
+        <v>24</v>
+      </c>
+      <c r="D97">
+        <v>719.14</v>
+      </c>
+      <c r="E97">
+        <v>0.05</v>
+      </c>
+      <c r="F97">
+        <v>35.96</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" t="s">
-        <v>69</v>
-      </c>
-      <c r="E98">
-        <v>157.88999999999999</v>
-      </c>
-      <c r="F98" s="1">
-        <v>3331.67</v>
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98">
+        <v>755.1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="E99">
         <v>157.88999999999999</v>
       </c>
-      <c r="F99">
-        <v>0</v>
+      <c r="F99" s="1">
+        <v>3198.07</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" t="s">
-        <v>33</v>
-      </c>
-      <c r="G100" s="1">
-        <v>3331.67</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D100" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100">
+        <v>157.88999999999999</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>34</v>
-      </c>
-      <c r="F101" s="1">
-        <v>3077.67</v>
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1">
+        <v>3198.07</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102" s="1">
-        <v>3077.67</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F102" s="1">
+        <v>3611.23</v>
+      </c>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E103">
-        <v>137.91999999999999</v>
-      </c>
-      <c r="F103">
-        <v>995.37</v>
+        <v>25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="G103" s="1">
+        <v>3611.23</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>27</v>
-      </c>
-      <c r="B104" t="s">
-        <v>38</v>
-      </c>
-      <c r="G104">
-        <v>995.37</v>
+        <v>34</v>
+      </c>
+      <c r="D104" t="s">
+        <v>149</v>
+      </c>
+      <c r="E104">
+        <v>137.91999999999999</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1057.48</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>39</v>
-      </c>
-      <c r="F105" s="1">
-        <v>8191.36</v>
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>36</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1">
+        <v>1057.48</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>27</v>
-      </c>
-      <c r="B106" t="s">
-        <v>41</v>
-      </c>
-      <c r="G106" s="1">
-        <v>8191.36</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F106" s="1">
+        <v>8621.8799999999992</v>
+      </c>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>42</v>
-      </c>
-      <c r="D107">
-        <v>21.1</v>
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" s="1">
+        <v>8621.8799999999992</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D108">
-        <v>7.22</v>
+        <v>20.260000000000002</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>50</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <v>790</v>
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>23</v>
-      </c>
-      <c r="B120" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>790</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>0</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" t="s">
-        <v>73</v>
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>35.5</v>
-      </c>
-      <c r="F122">
-        <v>318.58999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>26</v>
-      </c>
-      <c r="D123">
+        <v>22</v>
+      </c>
+      <c r="D123" t="s">
+        <v>68</v>
+      </c>
+      <c r="E123">
+        <v>35.5</v>
+      </c>
+      <c r="F123">
         <v>318.58999999999997</v>
-      </c>
-      <c r="E123">
-        <v>0.05</v>
-      </c>
-      <c r="F123">
-        <v>15.93</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>27</v>
-      </c>
-      <c r="B124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124">
-        <v>334.52</v>
+        <v>24</v>
+      </c>
+      <c r="D124">
+        <v>318.58999999999997</v>
+      </c>
+      <c r="E124">
+        <v>0.05</v>
+      </c>
+      <c r="F124">
+        <v>15.93</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>29</v>
-      </c>
-      <c r="D125" t="s">
-        <v>73</v>
-      </c>
-      <c r="E125">
-        <v>157.88999999999999</v>
-      </c>
-      <c r="F125" s="1">
-        <v>1416.8</v>
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="F125" s="1"/>
+      <c r="G125">
+        <v>334.52</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E126">
         <v>157.88999999999999</v>
       </c>
-      <c r="F126">
-        <v>0</v>
+      <c r="F126" s="1">
+        <v>1416.8</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>27</v>
-      </c>
-      <c r="B127" t="s">
-        <v>33</v>
-      </c>
-      <c r="G127" s="1">
-        <v>1416.8</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D127" t="s">
+        <v>66</v>
+      </c>
+      <c r="E127">
+        <v>157.88999999999999</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>34</v>
-      </c>
-      <c r="F128">
-        <v>972</v>
+        <v>25</v>
+      </c>
+      <c r="B128" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1416.8</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>27</v>
-      </c>
-      <c r="B129" t="s">
-        <v>35</v>
-      </c>
-      <c r="G129">
-        <v>972</v>
+        <v>32</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1105.5999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>36</v>
-      </c>
-      <c r="D130" t="s">
-        <v>74</v>
-      </c>
-      <c r="E130">
-        <v>137.91999999999999</v>
-      </c>
-      <c r="F130">
-        <v>404.9</v>
+        <v>25</v>
+      </c>
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="G130" s="1">
+        <v>1105.5999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>27</v>
-      </c>
-      <c r="B131" t="s">
-        <v>38</v>
-      </c>
-      <c r="G131">
-        <v>404.9</v>
+        <v>34</v>
+      </c>
+      <c r="D131" t="s">
+        <v>150</v>
+      </c>
+      <c r="E131">
+        <v>137.91999999999999</v>
+      </c>
+      <c r="F131">
+        <v>427.55</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>39</v>
-      </c>
-      <c r="F132" s="1">
-        <v>3128.23</v>
+        <v>25</v>
+      </c>
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132">
+        <v>427.55</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>27</v>
-      </c>
-      <c r="B133" t="s">
-        <v>41</v>
-      </c>
-      <c r="G133" s="1">
-        <v>3128.23</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F133" s="1">
+        <v>3284.47</v>
+      </c>
+      <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>42</v>
-      </c>
-      <c r="D134">
-        <v>8.9700000000000006</v>
+        <v>25</v>
+      </c>
+      <c r="B134" t="s">
+        <v>39</v>
+      </c>
+      <c r="G134" s="1">
+        <v>3284.47</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D135">
-        <v>2.94</v>
+        <v>8.9700000000000006</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>9</v>
-      </c>
-      <c r="B145" t="s">
-        <v>10</v>
-      </c>
-      <c r="C145" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>15</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>16</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -2491,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -2502,57 +2518,63 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>23</v>
-      </c>
-      <c r="B148" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>180</v>
       </c>
       <c r="E148" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>0</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>27</v>
-      </c>
-      <c r="B150" t="s">
-        <v>28</v>
-      </c>
-      <c r="G150">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="E150">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>29</v>
-      </c>
-      <c r="D151" t="s">
-        <v>70</v>
-      </c>
-      <c r="E151">
-        <v>157.88999999999999</v>
-      </c>
-      <c r="F151">
+        <v>25</v>
+      </c>
+      <c r="B151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D152" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E152">
         <v>157.88999999999999</v>
@@ -2563,225 +2585,220 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>27</v>
-      </c>
-      <c r="B153" t="s">
-        <v>33</v>
-      </c>
-      <c r="G153">
+        <v>29</v>
+      </c>
+      <c r="D153" t="s">
+        <v>66</v>
+      </c>
+      <c r="E153">
+        <v>157.88999999999999</v>
+      </c>
+      <c r="F153">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>34</v>
-      </c>
-      <c r="F154" s="1">
-        <v>1768.28</v>
+        <v>25</v>
+      </c>
+      <c r="B154" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>27</v>
-      </c>
-      <c r="B155" t="s">
-        <v>35</v>
-      </c>
-      <c r="G155" s="1">
+        <v>32</v>
+      </c>
+      <c r="F155" s="1">
         <v>1768.28</v>
       </c>
+      <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>36</v>
-      </c>
-      <c r="D156" t="s">
-        <v>77</v>
-      </c>
-      <c r="E156">
-        <v>137.91999999999999</v>
-      </c>
-      <c r="F156">
-        <v>159.68</v>
+        <v>25</v>
+      </c>
+      <c r="B156" t="s">
+        <v>33</v>
+      </c>
+      <c r="G156" s="1">
+        <v>1768.28</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>27</v>
-      </c>
-      <c r="B157" t="s">
-        <v>38</v>
-      </c>
-      <c r="G157">
+        <v>34</v>
+      </c>
+      <c r="D157" t="s">
+        <v>71</v>
+      </c>
+      <c r="E157">
+        <v>137.91999999999999</v>
+      </c>
+      <c r="F157">
         <v>159.68</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>39</v>
-      </c>
-      <c r="F158" s="1">
-        <v>1927.96</v>
+        <v>25</v>
+      </c>
+      <c r="B158" t="s">
+        <v>36</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158">
+        <v>159.68</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>40</v>
-      </c>
-      <c r="F159">
-        <v>266</v>
+        <v>37</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1927.96</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>27</v>
-      </c>
-      <c r="B160" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160">
+        <v>266</v>
+      </c>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>25</v>
+      </c>
+      <c r="B161" t="s">
+        <v>39</v>
+      </c>
+      <c r="G161" s="1">
+        <v>2193.96</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>40</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>41</v>
       </c>
-      <c r="G160" s="1">
-        <v>2193.96</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="D163">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>42</v>
       </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>43</v>
-      </c>
-      <c r="D162">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>44</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>82</v>
-      </c>
-      <c r="B175" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="B176" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>1990</v>
-      </c>
-      <c r="B180" t="s">
-        <v>65</v>
-      </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
+      <c r="A180" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B181" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -2798,10 +2815,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="B182" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C182">
         <v>2</v>
@@ -2813,18 +2830,18 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>124.3</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>248.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B183" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C183">
         <v>2</v>
@@ -2836,448 +2853,472 @@
         <v>0</v>
       </c>
       <c r="F183">
+        <v>124.3</v>
+      </c>
+      <c r="G183">
+        <v>248.6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1970</v>
+      </c>
+      <c r="B184" t="s">
+        <v>64</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
         <v>223.3</v>
       </c>
-      <c r="G183">
+      <c r="G184">
         <v>446.6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>23</v>
-      </c>
-      <c r="C184" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0</v>
+        <v>1900</v>
+      </c>
+      <c r="B185" t="s">
+        <v>151</v>
       </c>
       <c r="C185">
-        <v>695.2</v>
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>253.5</v>
+      </c>
+      <c r="G185">
+        <v>507</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>27</v>
-      </c>
-      <c r="B186" t="s">
-        <v>33</v>
-      </c>
-      <c r="G186">
-        <v>695.2</v>
+        <v>21</v>
+      </c>
+      <c r="C186" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>34</v>
-      </c>
-      <c r="F187">
-        <v>510.87</v>
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1202.2</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B188" t="s">
-        <v>35</v>
-      </c>
-      <c r="G188">
-        <v>510.87</v>
+        <v>31</v>
+      </c>
+      <c r="G188" s="1">
+        <v>1202.2</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="F189">
+        <v>510.87</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B190" t="s">
-        <v>86</v>
-      </c>
-      <c r="E190">
-        <v>135.13</v>
-      </c>
-      <c r="F190">
-        <v>360.98</v>
+        <v>33</v>
+      </c>
+      <c r="G190">
+        <v>510.87</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B192" t="s">
-        <v>38</v>
-      </c>
-      <c r="G192">
-        <v>360.98</v>
+        <v>152</v>
+      </c>
+      <c r="E192">
+        <v>135.13</v>
+      </c>
+      <c r="F192">
+        <v>512.72</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>39</v>
-      </c>
-      <c r="F193" s="1">
-        <v>1567.05</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>87</v>
-      </c>
-      <c r="D194" t="s">
-        <v>88</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B194" t="s">
+        <v>36</v>
+      </c>
+      <c r="G194">
+        <v>512.72</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>23</v>
-      </c>
-      <c r="C195" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="F195" s="1">
+        <v>2225.79</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>27</v>
-      </c>
-      <c r="B196" t="s">
-        <v>41</v>
+        <v>80</v>
+      </c>
+      <c r="D196" t="s">
+        <v>153</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
-      <c r="G196" s="1">
-        <v>1567.05</v>
-      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>42</v>
-      </c>
-      <c r="B197">
-        <v>6.32</v>
+        <v>21</v>
+      </c>
+      <c r="C197" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>43</v>
-      </c>
-      <c r="B198">
-        <v>2.67</v>
+        <v>25</v>
+      </c>
+      <c r="B198" t="s">
+        <v>39</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="G198" s="1">
+        <v>2225.79</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="B200">
+        <v>3.79</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>92</v>
-      </c>
-      <c r="B208" t="s">
-        <v>93</v>
-      </c>
-      <c r="C208" t="s">
-        <v>94</v>
-      </c>
-      <c r="D208" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>96</v>
-      </c>
-      <c r="B209" s="1">
-        <v>267726.11</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B209" s="1"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>97</v>
-      </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-      <c r="D210" s="1">
-        <v>1567.05</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="B210" t="s">
+        <v>85</v>
+      </c>
+      <c r="C210" t="s">
+        <v>86</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>23</v>
-      </c>
-      <c r="B211" t="s">
-        <v>23</v>
-      </c>
-      <c r="C211" t="s">
-        <v>23</v>
-      </c>
-      <c r="D211" t="s">
-        <v>23</v>
+        <v>88</v>
+      </c>
+      <c r="B211" s="1">
+        <v>276854.68</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>267726.11</v>
+      <c r="A212" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
       <c r="C212" s="1">
-        <v>1567.05</v>
-      </c>
-      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="D212" s="1">
+        <v>2225.79</v>
+      </c>
+      <c r="E212">
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>98</v>
-      </c>
-      <c r="C213">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B213" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" t="s">
+        <v>21</v>
+      </c>
+      <c r="D213" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>99</v>
-      </c>
-      <c r="C214">
-        <v>1963.068</v>
+      <c r="A214" s="1">
+        <v>276854.68</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214" s="1">
+        <v>2225.79</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C215" s="2">
-        <v>53221.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C216" s="2">
-        <v>15490.27</v>
+        <v>1962.588</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C217" s="2">
-        <v>269293.15999999997</v>
+        <v>61641.33</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C218" s="2">
-        <v>269293.15999999997</v>
+        <v>16515.98</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>102</v>
-      </c>
-      <c r="B219">
-        <v>625.12</v>
+        <v>92</v>
+      </c>
+      <c r="C219" s="2">
+        <v>279080.46999999997</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>103</v>
-      </c>
-      <c r="B220">
-        <v>112.37</v>
+        <v>93</v>
+      </c>
+      <c r="C220" s="2">
+        <v>279080.46999999997</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>628.89</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>119.82</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>20</v>
-      </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-      <c r="C235">
-        <v>1964</v>
-      </c>
-      <c r="D235">
-        <v>0</v>
-      </c>
-      <c r="E235">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>23</v>
-      </c>
-      <c r="B236" t="s">
-        <v>23</v>
-      </c>
-      <c r="C236" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
       </c>
       <c r="C237">
         <v>1964</v>
@@ -3291,353 +3332,362 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>113</v>
+        <v>21</v>
+      </c>
+      <c r="B238" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="C239">
+        <v>1964</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>47</v>
-      </c>
-      <c r="B242">
-        <v>8</v>
-      </c>
-      <c r="C242">
-        <v>13</v>
-      </c>
-      <c r="D242">
-        <v>0.104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>48</v>
-      </c>
-      <c r="B243">
-        <v>12</v>
-      </c>
-      <c r="C243">
-        <v>1</v>
-      </c>
-      <c r="D243">
-        <v>1.2E-2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B244">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C244">
-        <v>3041</v>
+        <v>13</v>
       </c>
       <c r="D244">
-        <v>72.263999999999996</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B245">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="C245">
-        <v>367</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>99.936000000000007</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C246">
-        <v>3756</v>
+        <v>3041</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>72.263999999999996</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B247">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="C247">
-        <v>4381</v>
+        <v>367</v>
       </c>
       <c r="D247">
-        <v>103.944</v>
+        <v>99.936000000000007</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B248">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="C248">
-        <v>739</v>
+        <v>3756</v>
       </c>
       <c r="D248">
-        <v>153.14400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B249">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C249">
-        <v>1265</v>
+        <v>4381</v>
       </c>
       <c r="D249">
-        <v>59.76</v>
+        <v>103.944</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B250">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="C250">
-        <v>5992</v>
+        <v>739</v>
       </c>
       <c r="D250">
-        <v>284.73599999999999</v>
+        <v>153.14400000000001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B251">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C251">
-        <v>4415</v>
+        <v>1265</v>
       </c>
       <c r="D251">
-        <v>104.76</v>
+        <v>59.76</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B252">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="C252">
-        <v>2130</v>
+        <v>5992</v>
       </c>
       <c r="D252">
-        <v>303.83999999999997</v>
+        <v>287.13600000000002</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B253">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C253">
-        <v>2606</v>
+        <v>4415</v>
       </c>
       <c r="D253">
-        <v>186.19200000000001</v>
+        <v>104.76</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B254">
         <v>144</v>
       </c>
       <c r="C254">
-        <v>2721</v>
+        <v>2130</v>
       </c>
       <c r="D254">
-        <v>388.94400000000002</v>
+        <v>303.83999999999997</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B255">
         <v>72</v>
       </c>
       <c r="C255">
-        <v>2870</v>
+        <v>2606</v>
       </c>
       <c r="D255">
-        <v>205.2</v>
+        <v>186.19200000000001</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>23</v>
-      </c>
-      <c r="B256" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="B256">
+        <v>144</v>
+      </c>
+      <c r="C256">
+        <v>2721</v>
+      </c>
+      <c r="D256">
+        <v>386.06400000000002</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>112</v>
+        <v>57</v>
+      </c>
+      <c r="B257">
+        <v>72</v>
       </c>
       <c r="C257">
-        <v>34297</v>
+        <v>2870</v>
       </c>
       <c r="D257">
-        <v>1962.836</v>
+        <v>205.2</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B258" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="C259">
+        <v>34297</v>
+      </c>
+      <c r="D259">
+        <v>1962.356</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>124</v>
-      </c>
-      <c r="B277">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>125</v>
-      </c>
-      <c r="B278">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -3645,7 +3695,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -3653,7 +3703,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -3661,39 +3711,39 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B282">
-        <v>0</v>
-      </c>
-      <c r="C282">
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>125</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -3701,7 +3751,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -3709,7 +3759,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -3717,39 +3767,39 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B289">
-        <v>0</v>
-      </c>
-      <c r="C289">
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>131</v>
+        <v>120</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>125</v>
-      </c>
-      <c r="B292">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -3757,7 +3807,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -3765,7 +3815,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -3773,39 +3823,39 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B296">
-        <v>0</v>
-      </c>
-      <c r="C296">
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>132</v>
+        <v>120</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>125</v>
-      </c>
-      <c r="B299">
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -3813,7 +3863,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -3821,7 +3871,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -3829,25 +3879,28 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B303">
-        <v>0</v>
-      </c>
-      <c r="C303">
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>133</v>
+        <v>120</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
         <v>0</v>
       </c>
     </row>
@@ -3855,13 +3908,10 @@
       <c r="A306" t="s">
         <v>125</v>
       </c>
-      <c r="B306">
-        <v>0</v>
-      </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -3869,7 +3919,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -3877,7 +3927,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -3885,232 +3935,249 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B310">
-        <v>0</v>
-      </c>
-      <c r="C310">
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>23</v>
+        <v>120</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>134</v>
+        <v>121</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>0</v>
+      <c r="A313" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>136</v>
+      <c r="A315">
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>0</v>
+      <c r="A316" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>2</v>
+      <c r="A318">
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>139</v>
-      </c>
-      <c r="B324" t="s">
-        <v>140</v>
-      </c>
-      <c r="C324" t="s">
-        <v>141</v>
-      </c>
-      <c r="D324" t="s">
-        <v>142</v>
-      </c>
-      <c r="E324" t="s">
-        <v>143</v>
-      </c>
-      <c r="F324" t="s">
-        <v>144</v>
-      </c>
-      <c r="G324" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>96</v>
-      </c>
-      <c r="B325" t="s">
         <v>145</v>
       </c>
-      <c r="C325" t="s">
-        <v>146</v>
-      </c>
-      <c r="D325" t="s">
-        <v>147</v>
-      </c>
-      <c r="E325">
-        <v>454.87</v>
-      </c>
-      <c r="F325">
-        <v>157.88999999999999</v>
-      </c>
-      <c r="G325" s="1">
-        <v>71819.42</v>
-      </c>
+      <c r="G325" s="1"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B326" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C326" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D326" t="s">
-        <v>147</v>
-      </c>
-      <c r="E326">
-        <v>0</v>
-      </c>
-      <c r="F326">
-        <v>157.88999999999999</v>
-      </c>
-      <c r="G326">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="E326" t="s">
+        <v>135</v>
+      </c>
+      <c r="F326" t="s">
+        <v>136</v>
+      </c>
+      <c r="G326" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B327" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C327" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D327" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E327">
-        <v>81.239999999999995</v>
+        <v>454.02</v>
       </c>
       <c r="F327">
         <v>157.88999999999999</v>
       </c>
       <c r="G327" s="1">
-        <v>12826.98</v>
+        <v>71685.22</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B328" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C328" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D328" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E328">
-        <v>83.08</v>
+        <v>0</v>
       </c>
       <c r="F328">
         <v>157.88999999999999</v>
       </c>
       <c r="G328" s="1">
-        <v>13117.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B329" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C329" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D329" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E329">
-        <v>6.32</v>
+        <v>81.239999999999995</v>
       </c>
       <c r="F329">
-        <v>110</v>
-      </c>
-      <c r="G329">
-        <v>695.2</v>
+        <v>157.88999999999999</v>
+      </c>
+      <c r="G329" s="1">
+        <v>12826.98</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>23</v>
+        <v>88</v>
+      </c>
+      <c r="B330" t="s">
+        <v>142</v>
       </c>
       <c r="C330" t="s">
-        <v>23</v>
+        <v>138</v>
+      </c>
+      <c r="D330" t="s">
+        <v>139</v>
+      </c>
+      <c r="E330">
+        <v>83.08</v>
+      </c>
+      <c r="F330">
+        <v>157.88999999999999</v>
+      </c>
+      <c r="G330" s="1">
+        <v>13117.5</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>625.51</v>
-      </c>
-      <c r="C331" s="1">
-        <v>98397.51</v>
+      <c r="A331" t="s">
+        <v>89</v>
+      </c>
+      <c r="B331" t="s">
+        <v>143</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D331" t="s">
+        <v>139</v>
+      </c>
+      <c r="E331">
+        <v>10.92</v>
+      </c>
+      <c r="F331">
+        <v>110</v>
+      </c>
+      <c r="G331" s="1">
+        <v>1201.2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>21</v>
+      </c>
+      <c r="C332" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>629.26</v>
+      </c>
+      <c r="C333" s="1">
+        <v>98770.91</v>
       </c>
     </row>
   </sheetData>
